--- a/autumn/xls/strategy_data_2015.xlsx
+++ b/autumn/xls/strategy_data_2015.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="TB_strategy_2016-04-21" sheetId="1" r:id="rId1"/>
+    <sheet name="TB_policies_services_2016-12-22" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -34,13 +34,13 @@
     <t>year</t>
   </si>
   <si>
+    <t>xpert_in_guide_tb</t>
+  </si>
+  <si>
     <t>xpert_in_guide_TBHIV</t>
   </si>
   <si>
-    <t>xpert_in_guide_MDR</t>
-  </si>
-  <si>
-    <t>xpert_in_guide_tb</t>
+    <t>xpert_in_guide_drtb</t>
   </si>
   <si>
     <t>xpert_in_guide_children</t>
@@ -49,18 +49,18 @@
     <t>xpert_in_guide_eptb</t>
   </si>
   <si>
+    <t>caseb_err_nat</t>
+  </si>
+  <si>
+    <t>hcw_tb_infected</t>
+  </si>
+  <si>
+    <t>hcw_tot</t>
+  </si>
+  <si>
     <t>eol_care</t>
   </si>
   <si>
-    <t>caseb_err_nat</t>
-  </si>
-  <si>
-    <t>hcw_tb_infected</t>
-  </si>
-  <si>
-    <t>hcw_tot</t>
-  </si>
-  <si>
     <t>pub_new_dx</t>
   </si>
   <si>
@@ -583,7 +583,7 @@
     <t>CYP</t>
   </si>
   <si>
-    <t>Czech Republic</t>
+    <t>Czechia</t>
   </si>
   <si>
     <t>CZ</t>
@@ -2869,9 +2869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2948,7 +2946,7 @@
         <v>21</v>
       </c>
       <c r="F2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2957,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2966,19 +2964,19 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="N2">
+        <v>30193</v>
       </c>
       <c r="O2">
-        <v>30193</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>366</v>
+        <v>1523</v>
       </c>
       <c r="Q2">
-        <v>2826</v>
+        <v>771</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -3001,7 +2999,7 @@
         <v>25</v>
       </c>
       <c r="F3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3018,8 +3016,26 @@
       <c r="K3">
         <v>0</v>
       </c>
+      <c r="L3">
+        <v>42</v>
+      </c>
       <c r="M3">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>161</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3039,28 +3055,34 @@
         <v>29</v>
       </c>
       <c r="F4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>77</v>
+      </c>
+      <c r="N4">
+        <v>250000</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3080,7 +3102,7 @@
         <v>33</v>
       </c>
       <c r="F5">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3100,24 +3122,9 @@
         <v>25</v>
       </c>
       <c r="F6">
-        <v>2014</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="M6">
+        <v>2015</v>
+      </c>
+      <c r="L6">
         <v>42</v>
       </c>
     </row>
@@ -3138,7 +3145,7 @@
         <v>29</v>
       </c>
       <c r="F7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3156,19 +3163,16 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="Q7">
-        <v>2713</v>
-      </c>
-      <c r="R7">
-        <v>2713</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3188,9 +3192,24 @@
         <v>43</v>
       </c>
       <c r="F8">
-        <v>2014</v>
-      </c>
-      <c r="M8">
+        <v>2015</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>0</v>
       </c>
     </row>
@@ -3211,10 +3230,7 @@
         <v>43</v>
       </c>
       <c r="F9">
-        <v>2014</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -3234,7 +3250,7 @@
         <v>43</v>
       </c>
       <c r="F10">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3252,18 +3268,15 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N10">
-        <v>24</v>
+        <v>805842</v>
       </c>
       <c r="O10">
-        <v>805842</v>
-      </c>
-      <c r="R10">
         <v>0</v>
       </c>
     </row>
@@ -3284,7 +3297,7 @@
         <v>25</v>
       </c>
       <c r="F11">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -3302,19 +3315,19 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>42</v>
+        <v>42</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -3334,10 +3347,7 @@
         <v>43</v>
       </c>
       <c r="F12">
-        <v>2014</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -3357,9 +3367,9 @@
         <v>33</v>
       </c>
       <c r="F13">
-        <v>2014</v>
-      </c>
-      <c r="M13">
+        <v>2015</v>
+      </c>
+      <c r="L13">
         <v>42</v>
       </c>
     </row>
@@ -3380,9 +3390,9 @@
         <v>25</v>
       </c>
       <c r="F14">
-        <v>2014</v>
-      </c>
-      <c r="M14">
+        <v>2015</v>
+      </c>
+      <c r="L14">
         <v>42</v>
       </c>
     </row>
@@ -3403,7 +3413,7 @@
         <v>25</v>
       </c>
       <c r="F15">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -3412,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -3421,10 +3431,10 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
         <v>43</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3453,10 +3463,25 @@
         <v>43</v>
       </c>
       <c r="F16">
-        <v>2014</v>
-      </c>
-      <c r="M16">
-        <v>43</v>
+        <v>2015</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -3476,7 +3501,7 @@
         <v>21</v>
       </c>
       <c r="F17">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -3496,16 +3521,16 @@
         <v>74</v>
       </c>
       <c r="F18">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -3514,16 +3539,16 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+        <v>42</v>
+      </c>
+      <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>2419</v>
+        <v>40156</v>
       </c>
       <c r="Q18">
-        <v>22960</v>
+        <v>60879</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -3546,9 +3571,24 @@
         <v>43</v>
       </c>
       <c r="F19">
-        <v>2014</v>
-      </c>
-      <c r="M19">
+        <v>2015</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>0</v>
       </c>
     </row>
@@ -3569,7 +3609,7 @@
         <v>25</v>
       </c>
       <c r="F20">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -3587,16 +3627,10 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>42</v>
-      </c>
-      <c r="N20">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="O20">
-        <v>162790</v>
+        <v>1</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -3625,7 +3659,7 @@
         <v>25</v>
       </c>
       <c r="F21">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3634,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -3642,7 +3676,7 @@
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="M21">
+      <c r="L21">
         <v>42</v>
       </c>
     </row>
@@ -3663,7 +3697,7 @@
         <v>43</v>
       </c>
       <c r="F22">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3681,15 +3715,15 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>42</v>
-      </c>
-      <c r="P22">
-        <v>2</v>
-      </c>
-      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>594</v>
+      </c>
+      <c r="O22">
         <v>0</v>
       </c>
     </row>
@@ -3710,16 +3744,16 @@
         <v>29</v>
       </c>
       <c r="F23">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3728,10 +3762,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -3751,10 +3785,25 @@
         <v>43</v>
       </c>
       <c r="F24">
-        <v>2014</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
+        <v>2015</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -3774,27 +3823,27 @@
         <v>74</v>
       </c>
       <c r="F25">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>0</v>
       </c>
     </row>
@@ -3815,7 +3864,7 @@
         <v>43</v>
       </c>
       <c r="F26">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3833,10 +3882,10 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
         <v>43</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -3856,10 +3905,7 @@
         <v>43</v>
       </c>
       <c r="F27">
-        <v>2014</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -3879,7 +3925,7 @@
         <v>25</v>
       </c>
       <c r="F28">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3897,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M28">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>40340</v>
       </c>
       <c r="O28">
-        <v>40763</v>
+        <v>0</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -3935,7 +3981,7 @@
         <v>29</v>
       </c>
       <c r="F29">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -3944,31 +3990,25 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M29">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="N29">
-        <v>84</v>
+        <v>18715</v>
       </c>
       <c r="O29">
-        <v>22124</v>
-      </c>
-      <c r="P29">
-        <v>60</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -3988,7 +4028,7 @@
         <v>43</v>
       </c>
       <c r="F30">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -4006,24 +4046,12 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>42</v>
-      </c>
-      <c r="N30">
-        <v>283</v>
+        <v>1078</v>
       </c>
       <c r="O30">
-        <v>2372343</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
         <v>0</v>
       </c>
     </row>
@@ -4044,9 +4072,24 @@
         <v>43</v>
       </c>
       <c r="F31">
-        <v>2014</v>
-      </c>
-      <c r="M31">
+        <v>2015</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
         <v>42</v>
       </c>
     </row>
@@ -4067,7 +4110,7 @@
         <v>33</v>
       </c>
       <c r="F32">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -4085,24 +4128,15 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>3600</v>
       </c>
       <c r="O32">
-        <v>3871</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
         <v>0</v>
       </c>
     </row>
@@ -4123,7 +4157,7 @@
         <v>25</v>
       </c>
       <c r="F33">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -4141,10 +4175,10 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>42</v>
+        <v>42</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -4164,16 +4198,16 @@
         <v>29</v>
       </c>
       <c r="F34">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -4182,18 +4216,9 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
         <v>43</v>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
+      <c r="O34">
         <v>0</v>
       </c>
     </row>
@@ -4214,36 +4239,27 @@
         <v>29</v>
       </c>
       <c r="F35">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>42</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
+        <v>42</v>
+      </c>
+      <c r="O35">
         <v>0</v>
       </c>
     </row>
@@ -4264,16 +4280,16 @@
         <v>29</v>
       </c>
       <c r="F36">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -4282,22 +4298,13 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>3</v>
-      </c>
-      <c r="P36">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -4317,16 +4324,16 @@
         <v>33</v>
       </c>
       <c r="F37">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -4335,19 +4342,16 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="N37">
+        <v>2470</v>
       </c>
       <c r="O37">
-        <v>2470</v>
+        <v>1</v>
       </c>
       <c r="P37">
-        <v>229</v>
-      </c>
-      <c r="Q37">
-        <v>465</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -4367,36 +4371,27 @@
         <v>29</v>
       </c>
       <c r="F38">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
         <v>43</v>
       </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
+      <c r="O38">
         <v>0</v>
       </c>
     </row>
@@ -4417,9 +4412,24 @@
         <v>43</v>
       </c>
       <c r="F39">
-        <v>2014</v>
-      </c>
-      <c r="M39">
+        <v>2015</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
         <v>42</v>
       </c>
     </row>
@@ -4440,9 +4450,24 @@
         <v>43</v>
       </c>
       <c r="F40">
-        <v>2014</v>
-      </c>
-      <c r="M40">
+        <v>2015</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
         <v>42</v>
       </c>
     </row>
@@ -4463,16 +4488,16 @@
         <v>29</v>
       </c>
       <c r="F41">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -4483,10 +4508,7 @@
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41">
-        <v>43</v>
-      </c>
-      <c r="R41">
+      <c r="O41">
         <v>0</v>
       </c>
     </row>
@@ -4507,16 +4529,16 @@
         <v>29</v>
       </c>
       <c r="F42">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -4527,22 +4549,7 @@
       <c r="L42">
         <v>0</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
       <c r="O42">
-        <v>1</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
         <v>0</v>
       </c>
     </row>
@@ -4563,7 +4570,7 @@
         <v>43</v>
       </c>
       <c r="F43">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4581,18 +4588,12 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M43">
-        <v>42</v>
-      </c>
-      <c r="N43">
-        <v>9</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="R43">
+        <v>25</v>
+      </c>
+      <c r="O43">
         <v>0</v>
       </c>
     </row>
@@ -4613,16 +4614,16 @@
         <v>33</v>
       </c>
       <c r="F44">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -4631,19 +4632,19 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M44">
-        <v>42</v>
+        <v>2994</v>
       </c>
       <c r="N44">
-        <v>3065</v>
+        <v>7390000</v>
       </c>
       <c r="O44">
-        <v>9790483</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>458356</v>
+        <v>447148</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -4669,37 +4670,10 @@
         <v>33</v>
       </c>
       <c r="F45">
-        <v>2014</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
+        <v>2015</v>
       </c>
       <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>42</v>
-      </c>
-      <c r="P45">
-        <v>3175</v>
-      </c>
-      <c r="Q45">
-        <v>350</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -4719,31 +4693,10 @@
         <v>33</v>
       </c>
       <c r="F46">
-        <v>2014</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
+        <v>2015</v>
       </c>
       <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>42</v>
-      </c>
-      <c r="N46">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -4763,7 +4716,7 @@
         <v>43</v>
       </c>
       <c r="F47">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4781,21 +4734,12 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="M47">
-        <v>42</v>
-      </c>
-      <c r="N47">
-        <v>206</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
+        <v>196</v>
+      </c>
+      <c r="O47">
         <v>0</v>
       </c>
     </row>
@@ -4816,13 +4760,10 @@
         <v>29</v>
       </c>
       <c r="F48">
-        <v>2014</v>
-      </c>
-      <c r="M48">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>165</v>
       </c>
@@ -4839,16 +4780,16 @@
         <v>29</v>
       </c>
       <c r="F49">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -4857,13 +4798,13 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>168</v>
       </c>
@@ -4880,13 +4821,13 @@
         <v>33</v>
       </c>
       <c r="F50">
-        <v>2014</v>
-      </c>
-      <c r="M50">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+      <c r="L50">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>171</v>
       </c>
@@ -4903,7 +4844,7 @@
         <v>43</v>
       </c>
       <c r="F51">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4921,28 +4862,10 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>42</v>
-      </c>
-      <c r="N51">
-        <v>2</v>
-      </c>
-      <c r="O51">
-        <v>54000</v>
-      </c>
-      <c r="P51">
-        <v>3</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>174</v>
       </c>
@@ -4959,16 +4882,16 @@
         <v>29</v>
       </c>
       <c r="F52">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -4980,19 +4903,13 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>43</v>
-      </c>
-      <c r="P52">
-        <v>2279</v>
-      </c>
-      <c r="Q52">
-        <v>319</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -5009,28 +4926,10 @@
         <v>25</v>
       </c>
       <c r="F53">
-        <v>2014</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>180</v>
       </c>
@@ -5047,13 +4946,28 @@
         <v>43</v>
       </c>
       <c r="F54">
-        <v>2014</v>
-      </c>
-      <c r="M54">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>183</v>
       </c>
@@ -5070,13 +4984,10 @@
         <v>43</v>
       </c>
       <c r="F55">
-        <v>2014</v>
-      </c>
-      <c r="M55">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>186</v>
       </c>
@@ -5093,10 +5004,10 @@
         <v>25</v>
       </c>
       <c r="F56">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>189</v>
       </c>
@@ -5113,13 +5024,28 @@
         <v>25</v>
       </c>
       <c r="F57">
-        <v>2014</v>
-      </c>
-      <c r="M57">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>192</v>
       </c>
@@ -5136,31 +5062,31 @@
         <v>74</v>
       </c>
       <c r="F58">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>195</v>
       </c>
@@ -5177,37 +5103,31 @@
         <v>29</v>
       </c>
       <c r="F59">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
         <v>43</v>
       </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>198</v>
       </c>
@@ -5224,10 +5144,10 @@
         <v>25</v>
       </c>
       <c r="F60">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>201</v>
       </c>
@@ -5244,34 +5164,34 @@
         <v>21</v>
       </c>
       <c r="F61">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
         <v>1</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>204</v>
       </c>
@@ -5288,13 +5208,28 @@
         <v>43</v>
       </c>
       <c r="F62">
-        <v>2014</v>
-      </c>
-      <c r="M62">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>207</v>
       </c>
@@ -5311,7 +5246,7 @@
         <v>43</v>
       </c>
       <c r="F63">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5329,28 +5264,19 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M63">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N63">
-        <v>14</v>
+        <v>11000</v>
       </c>
       <c r="O63">
-        <v>21300</v>
-      </c>
-      <c r="P63">
-        <v>10</v>
-      </c>
-      <c r="Q63">
-        <v>772</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>210</v>
       </c>
@@ -5367,16 +5293,16 @@
         <v>43</v>
       </c>
       <c r="F64">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -5385,18 +5311,12 @@
         <v>1</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="M64">
-        <v>43</v>
-      </c>
-      <c r="N64">
-        <v>13</v>
-      </c>
-      <c r="P64">
-        <v>45</v>
-      </c>
-      <c r="R64">
+        <v>16</v>
+      </c>
+      <c r="O64">
         <v>0</v>
       </c>
     </row>
@@ -5417,34 +5337,34 @@
         <v>21</v>
       </c>
       <c r="F65">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="M65">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>543581</v>
       </c>
       <c r="O65">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="P65">
         <v>1375</v>
@@ -5473,16 +5393,16 @@
         <v>43</v>
       </c>
       <c r="F66">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -5491,24 +5411,15 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M66">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="N66">
-        <v>48</v>
+        <v>44063</v>
       </c>
       <c r="O66">
-        <v>41965</v>
-      </c>
-      <c r="P66">
-        <v>1016</v>
-      </c>
-      <c r="Q66">
-        <v>42</v>
-      </c>
-      <c r="R66">
         <v>0</v>
       </c>
     </row>
@@ -5529,7 +5440,7 @@
         <v>29</v>
       </c>
       <c r="F67">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -5538,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -5547,16 +5458,13 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="M67">
-        <v>43</v>
-      </c>
-      <c r="N67">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -5576,16 +5484,16 @@
         <v>29</v>
       </c>
       <c r="F68">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -5594,13 +5502,16 @@
         <v>1</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N68">
-        <v>7</v>
+        <v>2000</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -5620,34 +5531,34 @@
         <v>25</v>
       </c>
       <c r="F69">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M69">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>22300</v>
       </c>
       <c r="O69">
-        <v>25200</v>
+        <v>1</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -5670,16 +5581,16 @@
         <v>29</v>
       </c>
       <c r="F70">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -5688,19 +5599,13 @@
         <v>1</v>
       </c>
       <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>16876</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
+        <v>15195</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -5720,10 +5625,10 @@
         <v>33</v>
       </c>
       <c r="F71">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -5738,19 +5643,13 @@
         <v>1</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M71">
-        <v>42</v>
-      </c>
-      <c r="N71">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>4800</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
@@ -5770,7 +5669,7 @@
         <v>25</v>
       </c>
       <c r="F72">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -5787,7 +5686,7 @@
       <c r="K72">
         <v>0</v>
       </c>
-      <c r="M72">
+      <c r="L72">
         <v>42</v>
       </c>
     </row>
@@ -5808,7 +5707,7 @@
         <v>25</v>
       </c>
       <c r="F73">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -5817,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -5825,7 +5724,7 @@
       <c r="K73">
         <v>0</v>
       </c>
-      <c r="M73">
+      <c r="L73">
         <v>42</v>
       </c>
     </row>
@@ -5846,9 +5745,9 @@
         <v>33</v>
       </c>
       <c r="F74">
-        <v>2014</v>
-      </c>
-      <c r="M74">
+        <v>2015</v>
+      </c>
+      <c r="L74">
         <v>42</v>
       </c>
     </row>
@@ -5869,16 +5768,16 @@
         <v>29</v>
       </c>
       <c r="F75">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -5889,16 +5788,7 @@
       <c r="L75">
         <v>0</v>
       </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>442</v>
-      </c>
-      <c r="Q75">
-        <v>184</v>
-      </c>
-      <c r="R75">
+      <c r="O75">
         <v>0</v>
       </c>
     </row>
@@ -5919,36 +5809,33 @@
         <v>29</v>
       </c>
       <c r="F76">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
       <c r="M76">
-        <v>42</v>
-      </c>
-      <c r="P76">
-        <v>9</v>
-      </c>
-      <c r="Q76">
-        <v>9</v>
-      </c>
-      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>4716</v>
+      </c>
+      <c r="O76">
         <v>0</v>
       </c>
     </row>
@@ -5969,7 +5856,7 @@
         <v>25</v>
       </c>
       <c r="F77">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -5987,22 +5874,22 @@
         <v>1</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M77">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>1076</v>
       </c>
       <c r="O77">
-        <v>1015</v>
+        <v>0</v>
       </c>
       <c r="P77">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="Q77">
-        <v>1232</v>
+        <v>1049</v>
       </c>
       <c r="R77">
         <v>38</v>
@@ -6025,7 +5912,7 @@
         <v>25</v>
       </c>
       <c r="F78">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -6042,7 +5929,7 @@
       <c r="K78">
         <v>0</v>
       </c>
-      <c r="M78">
+      <c r="L78">
         <v>42</v>
       </c>
     </row>
@@ -6063,16 +5950,16 @@
         <v>29</v>
       </c>
       <c r="F79">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -6084,19 +5971,16 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O79">
-        <v>54068</v>
+        <v>0</v>
       </c>
       <c r="P79">
-        <v>679</v>
+        <v>342</v>
       </c>
       <c r="Q79">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="R79">
         <v>0</v>
@@ -6119,7 +6003,7 @@
         <v>25</v>
       </c>
       <c r="F80">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -6139,7 +6023,19 @@
         <v>25</v>
       </c>
       <c r="F81">
-        <v>2014</v>
+        <v>2015</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
@@ -6159,9 +6055,24 @@
         <v>43</v>
       </c>
       <c r="F82">
-        <v>2014</v>
-      </c>
-      <c r="M82">
+        <v>2015</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
         <v>42</v>
       </c>
     </row>
@@ -6182,9 +6093,9 @@
         <v>33</v>
       </c>
       <c r="F83">
-        <v>2014</v>
-      </c>
-      <c r="M83">
+        <v>2015</v>
+      </c>
+      <c r="L83">
         <v>42</v>
       </c>
     </row>
@@ -6205,16 +6116,16 @@
         <v>43</v>
       </c>
       <c r="F84">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -6223,18 +6134,12 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M84">
-        <v>42</v>
-      </c>
-      <c r="N84">
-        <v>14</v>
-      </c>
-      <c r="Q84">
-        <v>12</v>
-      </c>
-      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="O84">
         <v>0</v>
       </c>
     </row>
@@ -6255,7 +6160,7 @@
         <v>29</v>
       </c>
       <c r="F85">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -6264,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -6273,21 +6178,12 @@
         <v>1</v>
       </c>
       <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
         <v>43</v>
       </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
       <c r="O85">
-        <v>9674</v>
-      </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>678</v>
-      </c>
-      <c r="R85">
         <v>0</v>
       </c>
     </row>
@@ -6308,34 +6204,31 @@
         <v>29</v>
       </c>
       <c r="F86">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86">
         <v>1</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
       <c r="M86">
-        <v>42</v>
-      </c>
-      <c r="N86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>2347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
@@ -6355,36 +6248,30 @@
         <v>43</v>
       </c>
       <c r="F87">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87">
         <v>1</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M87">
-        <v>42</v>
-      </c>
-      <c r="P87">
-        <v>33</v>
-      </c>
-      <c r="Q87">
-        <v>27</v>
-      </c>
-      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="O87">
         <v>0</v>
       </c>
     </row>
@@ -6405,33 +6292,33 @@
         <v>43</v>
       </c>
       <c r="F88">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88">
         <v>0</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M88">
-        <v>42</v>
-      </c>
-      <c r="Q88">
-        <v>380</v>
-      </c>
-      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>6298</v>
+      </c>
+      <c r="O88">
         <v>0</v>
       </c>
     </row>
@@ -6452,42 +6339,33 @@
         <v>43</v>
       </c>
       <c r="F89">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
       <c r="M89">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N89">
-        <v>27</v>
+        <v>22000</v>
       </c>
       <c r="O89">
-        <v>22000</v>
-      </c>
-      <c r="P89">
-        <v>264</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
         <v>0</v>
       </c>
     </row>
@@ -6508,25 +6386,7 @@
         <v>25</v>
       </c>
       <c r="F90">
-        <v>2014</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="M90">
-        <v>42</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
@@ -6546,25 +6406,7 @@
         <v>25</v>
       </c>
       <c r="F91">
-        <v>2014</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>42</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
@@ -6584,16 +6426,16 @@
         <v>74</v>
       </c>
       <c r="F92">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -6602,22 +6444,16 @@
         <v>1</v>
       </c>
       <c r="L92">
-        <v>1</v>
-      </c>
-      <c r="M92">
-        <v>42</v>
-      </c>
-      <c r="N92">
-        <v>3606</v>
+        <v>42</v>
       </c>
       <c r="O92">
-        <v>2390000</v>
+        <v>1</v>
       </c>
       <c r="P92">
-        <v>189857</v>
+        <v>284636</v>
       </c>
       <c r="Q92">
-        <v>194992</v>
+        <v>184802</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
@@ -6637,37 +6473,37 @@
         <v>74</v>
       </c>
       <c r="F93">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93">
         <v>1</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>42</v>
+        <v>42</v>
+      </c>
+      <c r="N93">
+        <v>34940</v>
       </c>
       <c r="O93">
-        <v>34940</v>
+        <v>0</v>
       </c>
       <c r="P93">
-        <v>57586</v>
+        <v>61183</v>
       </c>
       <c r="Q93">
-        <v>28186</v>
+        <v>30550</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -6690,16 +6526,16 @@
         <v>21</v>
       </c>
       <c r="F94">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -6708,16 +6544,16 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <v>1</v>
-      </c>
-      <c r="M94">
-        <v>42</v>
+        <v>42</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
       </c>
       <c r="P94">
-        <v>1107</v>
+        <v>7196</v>
       </c>
       <c r="Q94">
-        <v>3093</v>
+        <v>3019</v>
       </c>
       <c r="R94">
         <v>0</v>
@@ -6740,16 +6576,16 @@
         <v>21</v>
       </c>
       <c r="F95">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -6758,22 +6594,19 @@
         <v>1</v>
       </c>
       <c r="L95">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M95">
-        <v>43</v>
-      </c>
-      <c r="N95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O95">
-        <v>1410</v>
+        <v>1</v>
       </c>
       <c r="P95">
-        <v>2748</v>
+        <v>2438</v>
       </c>
       <c r="Q95">
-        <v>3803</v>
+        <v>3945</v>
       </c>
       <c r="R95">
         <v>0</v>
@@ -6796,7 +6629,7 @@
         <v>25</v>
       </c>
       <c r="F96">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -6813,7 +6646,7 @@
       <c r="K96">
         <v>1</v>
       </c>
-      <c r="M96">
+      <c r="L96">
         <v>42</v>
       </c>
     </row>
@@ -6834,16 +6667,16 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -6851,7 +6684,7 @@
       <c r="K97">
         <v>0</v>
       </c>
-      <c r="M97">
+      <c r="L97">
         <v>42</v>
       </c>
     </row>
@@ -6872,22 +6705,19 @@
         <v>25</v>
       </c>
       <c r="F98">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98">
         <v>1</v>
-      </c>
-      <c r="M98">
-        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
@@ -6907,42 +6737,30 @@
         <v>43</v>
       </c>
       <c r="F99">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M99">
-        <v>42</v>
-      </c>
-      <c r="N99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>14500</v>
-      </c>
-      <c r="P99">
-        <v>4</v>
-      </c>
-      <c r="Q99">
-        <v>1</v>
-      </c>
-      <c r="R99">
         <v>0</v>
       </c>
     </row>
@@ -6963,9 +6781,9 @@
         <v>33</v>
       </c>
       <c r="F100">
-        <v>2014</v>
-      </c>
-      <c r="M100">
+        <v>2015</v>
+      </c>
+      <c r="L100">
         <v>42</v>
       </c>
     </row>
@@ -6986,16 +6804,16 @@
         <v>21</v>
       </c>
       <c r="F101">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -7004,25 +6822,25 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M101">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>69084</v>
       </c>
       <c r="O101">
-        <v>63900</v>
+        <v>0</v>
       </c>
       <c r="P101">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="Q101">
-        <v>86</v>
+        <v>269</v>
       </c>
       <c r="R101">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
@@ -7042,7 +6860,7 @@
         <v>25</v>
       </c>
       <c r="F102">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -7051,7 +6869,7 @@
         <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -7060,16 +6878,13 @@
         <v>1</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M102">
-        <v>42</v>
-      </c>
-      <c r="N102">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="O102">
-        <v>17436</v>
+        <v>1</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -7098,10 +6913,10 @@
         <v>29</v>
       </c>
       <c r="F103">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -7113,28 +6928,25 @@
         <v>1</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M103">
-        <v>42</v>
-      </c>
-      <c r="N103">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="O103">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="P103">
-        <v>71094</v>
+        <v>65673</v>
       </c>
       <c r="Q103">
-        <v>18200</v>
+        <v>15531</v>
       </c>
       <c r="R103">
-        <v>81</v>
+        <v>437</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
@@ -7154,10 +6966,10 @@
         <v>33</v>
       </c>
       <c r="F104">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -7169,28 +6981,13 @@
         <v>1</v>
       </c>
       <c r="K104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>1</v>
-      </c>
-      <c r="M104">
-        <v>42</v>
-      </c>
-      <c r="N104">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="O104">
-        <v>890</v>
-      </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
@@ -7210,9 +7007,9 @@
         <v>21</v>
       </c>
       <c r="F105">
-        <v>2014</v>
-      </c>
-      <c r="M105">
+        <v>2015</v>
+      </c>
+      <c r="L105">
         <v>42</v>
       </c>
     </row>
@@ -7233,7 +7030,7 @@
         <v>25</v>
       </c>
       <c r="F106">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -7242,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -7251,25 +7048,19 @@
         <v>1</v>
       </c>
       <c r="L106">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M106">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="N106">
-        <v>49</v>
+        <v>71335</v>
       </c>
       <c r="O106">
-        <v>69958</v>
-      </c>
-      <c r="P106">
-        <v>202</v>
-      </c>
-      <c r="Q106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R106">
-        <v>123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
@@ -7289,10 +7080,10 @@
         <v>33</v>
       </c>
       <c r="F107">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -7307,18 +7098,9 @@
         <v>1</v>
       </c>
       <c r="L107">
-        <v>1</v>
-      </c>
-      <c r="M107">
-        <v>0</v>
-      </c>
-      <c r="P107">
-        <v>663</v>
-      </c>
-      <c r="Q107">
-        <v>459</v>
-      </c>
-      <c r="R107">
+        <v>43</v>
+      </c>
+      <c r="O107">
         <v>0</v>
       </c>
     </row>
@@ -7339,7 +7121,7 @@
         <v>25</v>
       </c>
       <c r="F108">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -7356,20 +7138,26 @@
       <c r="K108">
         <v>1</v>
       </c>
+      <c r="L108">
+        <v>42</v>
+      </c>
       <c r="M108">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="N108">
-        <v>9</v>
+        <v>38998</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
       </c>
       <c r="P108">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="Q108">
         <v>0</v>
       </c>
       <c r="R108">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
@@ -7389,16 +7177,16 @@
         <v>21</v>
       </c>
       <c r="F109">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -7407,22 +7195,22 @@
         <v>1</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M109">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>39160</v>
       </c>
       <c r="O109">
-        <v>11718</v>
+        <v>0</v>
       </c>
       <c r="P109">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="Q109">
-        <v>588</v>
+        <v>642</v>
       </c>
       <c r="R109">
         <v>0</v>
@@ -7445,7 +7233,7 @@
         <v>29</v>
       </c>
       <c r="F110">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -7454,28 +7242,22 @@
         <v>1</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="M110">
-        <v>43</v>
-      </c>
-      <c r="N110">
-        <v>1</v>
-      </c>
-      <c r="P110">
-        <v>56</v>
-      </c>
-      <c r="Q110">
-        <v>2689</v>
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
@@ -7495,42 +7277,30 @@
         <v>29</v>
       </c>
       <c r="F111">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111">
         <v>1</v>
       </c>
       <c r="K111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111">
         <v>0</v>
       </c>
-      <c r="M111">
-        <v>42</v>
-      </c>
       <c r="N111">
-        <v>0</v>
+        <v>6023</v>
       </c>
       <c r="O111">
-        <v>632</v>
-      </c>
-      <c r="P111">
-        <v>400</v>
-      </c>
-      <c r="Q111">
-        <v>50</v>
-      </c>
-      <c r="R111">
         <v>0</v>
       </c>
     </row>
@@ -7551,31 +7321,34 @@
         <v>21</v>
       </c>
       <c r="F112">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>42</v>
       </c>
       <c r="M112">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="N112">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="O112">
-        <v>1800</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
@@ -7595,7 +7368,7 @@
         <v>25</v>
       </c>
       <c r="F113">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -7613,13 +7386,13 @@
         <v>1</v>
       </c>
       <c r="L113">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M113">
-        <v>42</v>
-      </c>
-      <c r="N113">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -7648,25 +7421,10 @@
         <v>25</v>
       </c>
       <c r="F114">
-        <v>2014</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-      <c r="K114">
-        <v>0</v>
-      </c>
-      <c r="M114">
-        <v>0</v>
+        <v>2015</v>
+      </c>
+      <c r="L114">
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
@@ -7686,7 +7444,7 @@
         <v>29</v>
       </c>
       <c r="F115">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -7695,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -7706,16 +7464,7 @@
       <c r="L115">
         <v>0</v>
       </c>
-      <c r="M115">
-        <v>0</v>
-      </c>
-      <c r="P115">
-        <v>0</v>
-      </c>
-      <c r="Q115">
-        <v>0</v>
-      </c>
-      <c r="R115">
+      <c r="O115">
         <v>0</v>
       </c>
     </row>
@@ -7736,7 +7485,7 @@
         <v>29</v>
       </c>
       <c r="F116">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -7745,7 +7494,7 @@
         <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -7756,11 +7505,17 @@
       <c r="L116">
         <v>0</v>
       </c>
-      <c r="M116">
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>3500</v>
+        <v>3049</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
@@ -7780,7 +7535,7 @@
         <v>33</v>
       </c>
       <c r="F117">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -7789,31 +7544,25 @@
         <v>1</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M117">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="N117">
-        <v>273</v>
+        <v>233745</v>
       </c>
       <c r="O117">
-        <v>220551</v>
-      </c>
-      <c r="Q117">
-        <v>1499</v>
-      </c>
-      <c r="R117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
@@ -7833,39 +7582,9 @@
         <v>74</v>
       </c>
       <c r="F118">
-        <v>2014</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
+        <v>2015</v>
       </c>
       <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="M118">
-        <v>0</v>
-      </c>
-      <c r="N118">
-        <v>0</v>
-      </c>
-      <c r="P118">
-        <v>15</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
         <v>0</v>
       </c>
     </row>
@@ -7886,36 +7605,12 @@
         <v>29</v>
       </c>
       <c r="F119">
-        <v>2014</v>
-      </c>
-      <c r="G119">
-        <v>1</v>
-      </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119">
-        <v>1</v>
-      </c>
-      <c r="K119">
-        <v>0</v>
+        <v>2015</v>
       </c>
       <c r="L119">
-        <v>0</v>
-      </c>
-      <c r="M119">
-        <v>42</v>
-      </c>
-      <c r="P119">
-        <v>0</v>
-      </c>
-      <c r="Q119">
-        <v>323</v>
-      </c>
-      <c r="R119">
+        <v>42</v>
+      </c>
+      <c r="O119">
         <v>0</v>
       </c>
     </row>
@@ -7936,9 +7631,24 @@
         <v>25</v>
       </c>
       <c r="F120">
-        <v>2014</v>
-      </c>
-      <c r="M120">
+        <v>2015</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
         <v>42</v>
       </c>
     </row>
@@ -7959,7 +7669,7 @@
         <v>33</v>
       </c>
       <c r="F121">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -7977,24 +7687,15 @@
         <v>1</v>
       </c>
       <c r="L121">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M121">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="N121">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="O121">
-        <v>600</v>
-      </c>
-      <c r="P121">
-        <v>0</v>
-      </c>
-      <c r="Q121">
-        <v>0</v>
-      </c>
-      <c r="R121">
         <v>0</v>
       </c>
     </row>
@@ -8015,7 +7716,7 @@
         <v>29</v>
       </c>
       <c r="F122">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -8035,16 +7736,7 @@
       <c r="L122">
         <v>0</v>
       </c>
-      <c r="M122">
-        <v>42</v>
-      </c>
-      <c r="P122">
-        <v>99</v>
-      </c>
-      <c r="Q122">
-        <v>0</v>
-      </c>
-      <c r="R122">
+      <c r="O122">
         <v>0</v>
       </c>
     </row>
@@ -8065,9 +7757,9 @@
         <v>29</v>
       </c>
       <c r="F123">
-        <v>2014</v>
-      </c>
-      <c r="M123">
+        <v>2015</v>
+      </c>
+      <c r="L123">
         <v>0</v>
       </c>
     </row>
@@ -8088,16 +7780,16 @@
         <v>43</v>
       </c>
       <c r="F124">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
         <v>1</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124">
         <v>1</v>
@@ -8106,24 +7798,15 @@
         <v>1</v>
       </c>
       <c r="L124">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M124">
-        <v>42</v>
+        <v>394</v>
       </c>
       <c r="N124">
-        <v>372</v>
+        <v>601052</v>
       </c>
       <c r="O124">
-        <v>8333818</v>
-      </c>
-      <c r="P124">
-        <v>510</v>
-      </c>
-      <c r="Q124">
-        <v>81</v>
-      </c>
-      <c r="R124">
         <v>0</v>
       </c>
     </row>
@@ -8144,40 +7827,13 @@
         <v>33</v>
       </c>
       <c r="F125">
-        <v>2014</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-      <c r="K125">
-        <v>0</v>
+        <v>2015</v>
       </c>
       <c r="L125">
         <v>0</v>
       </c>
-      <c r="M125">
-        <v>42</v>
-      </c>
-      <c r="N125">
-        <v>0</v>
-      </c>
-      <c r="P125">
-        <v>0</v>
-      </c>
-      <c r="Q125">
-        <v>0</v>
-      </c>
-      <c r="R125">
-        <v>0</v>
+      <c r="O125">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
@@ -8197,7 +7853,25 @@
         <v>25</v>
       </c>
       <c r="F126">
-        <v>2014</v>
+        <v>2015</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
@@ -8217,10 +7891,10 @@
         <v>33</v>
       </c>
       <c r="F127">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -8235,24 +7909,15 @@
         <v>1</v>
       </c>
       <c r="L127">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M127">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N127">
-        <v>39</v>
+        <v>47429</v>
       </c>
       <c r="O127">
-        <v>45000</v>
-      </c>
-      <c r="P127">
-        <v>47</v>
-      </c>
-      <c r="Q127">
-        <v>1001</v>
-      </c>
-      <c r="R127">
         <v>0</v>
       </c>
     </row>
@@ -8273,7 +7938,7 @@
         <v>25</v>
       </c>
       <c r="F128">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -8291,22 +7956,22 @@
         <v>0</v>
       </c>
       <c r="L128">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M128">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="N128">
-        <v>1</v>
+        <v>7228</v>
       </c>
       <c r="O128">
-        <v>1512</v>
+        <v>0</v>
       </c>
       <c r="P128">
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R128">
         <v>0</v>
@@ -8329,9 +7994,9 @@
         <v>43</v>
       </c>
       <c r="F129">
-        <v>2014</v>
-      </c>
-      <c r="M129">
+        <v>2015</v>
+      </c>
+      <c r="L129">
         <v>0</v>
       </c>
     </row>
@@ -8352,16 +8017,16 @@
         <v>21</v>
       </c>
       <c r="F130">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130">
         <v>1</v>
@@ -8370,18 +8035,9 @@
         <v>1</v>
       </c>
       <c r="L130">
-        <v>1</v>
-      </c>
-      <c r="M130">
-        <v>0</v>
-      </c>
-      <c r="P130">
-        <v>600</v>
-      </c>
-      <c r="Q130">
-        <v>1779</v>
-      </c>
-      <c r="R130">
+        <v>0</v>
+      </c>
+      <c r="O130">
         <v>0</v>
       </c>
     </row>
@@ -8402,16 +8058,16 @@
         <v>29</v>
       </c>
       <c r="F131">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131">
         <v>1</v>
@@ -8420,16 +8076,13 @@
         <v>1</v>
       </c>
       <c r="L131">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M131">
-        <v>43</v>
-      </c>
-      <c r="N131">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="O131">
-        <v>40405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
@@ -8449,7 +8102,7 @@
         <v>74</v>
       </c>
       <c r="F132">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -8458,7 +8111,7 @@
         <v>1</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -8467,19 +8120,22 @@
         <v>1</v>
       </c>
       <c r="L132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M132">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="O132">
+        <v>1</v>
       </c>
       <c r="P132">
-        <v>5873</v>
+        <v>5561</v>
       </c>
       <c r="Q132">
-        <v>25978</v>
+        <v>23513</v>
       </c>
       <c r="R132">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
@@ -8499,31 +8155,31 @@
         <v>29</v>
       </c>
       <c r="F133">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L133">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M133">
-        <v>42</v>
-      </c>
-      <c r="N133">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
@@ -8543,10 +8199,10 @@
         <v>33</v>
       </c>
       <c r="F134">
-        <v>2014</v>
-      </c>
-      <c r="M134">
-        <v>0</v>
+        <v>2015</v>
+      </c>
+      <c r="L134">
+        <v>42</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
@@ -8566,16 +8222,16 @@
         <v>74</v>
       </c>
       <c r="F135">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -8586,20 +8242,20 @@
       <c r="L135">
         <v>0</v>
       </c>
-      <c r="M135">
-        <v>0</v>
+      <c r="N135">
+        <v>57227</v>
       </c>
       <c r="O135">
-        <v>54177</v>
+        <v>0</v>
       </c>
       <c r="P135">
-        <v>698</v>
+        <v>946</v>
       </c>
       <c r="Q135">
-        <v>798</v>
+        <v>2714</v>
       </c>
       <c r="R135">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
@@ -8619,24 +8275,9 @@
         <v>25</v>
       </c>
       <c r="F136">
-        <v>2014</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
-      <c r="K136">
-        <v>0</v>
-      </c>
-      <c r="M136">
+        <v>2015</v>
+      </c>
+      <c r="L136">
         <v>42</v>
       </c>
     </row>
@@ -8657,9 +8298,9 @@
         <v>33</v>
       </c>
       <c r="F137">
-        <v>2014</v>
-      </c>
-      <c r="M137">
+        <v>2015</v>
+      </c>
+      <c r="L137">
         <v>42</v>
       </c>
     </row>
@@ -8680,9 +8321,9 @@
         <v>33</v>
       </c>
       <c r="F138">
-        <v>2014</v>
-      </c>
-      <c r="M138">
+        <v>2015</v>
+      </c>
+      <c r="L138">
         <v>42</v>
       </c>
     </row>
@@ -8703,39 +8344,33 @@
         <v>43</v>
       </c>
       <c r="F139">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139">
         <v>0</v>
       </c>
       <c r="L139">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M139">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="N139">
-        <v>14</v>
+        <v>34674</v>
       </c>
       <c r="O139">
-        <v>34674</v>
-      </c>
-      <c r="P139">
-        <v>291</v>
-      </c>
-      <c r="R139">
         <v>0</v>
       </c>
     </row>
@@ -8756,16 +8391,16 @@
         <v>29</v>
       </c>
       <c r="F140">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G140">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140">
         <v>1</v>
@@ -8774,10 +8409,10 @@
         <v>0</v>
       </c>
       <c r="L140">
-        <v>0</v>
-      </c>
-      <c r="M140">
         <v>43</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
@@ -8797,16 +8432,16 @@
         <v>29</v>
       </c>
       <c r="F141">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -8815,19 +8450,22 @@
         <v>1</v>
       </c>
       <c r="L141">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="M141">
-        <v>43</v>
+        <v>80</v>
+      </c>
+      <c r="O141">
+        <v>1</v>
       </c>
       <c r="P141">
-        <v>330</v>
+        <v>13088</v>
       </c>
       <c r="Q141">
-        <v>13031</v>
+        <v>627</v>
       </c>
       <c r="R141">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
@@ -8847,9 +8485,9 @@
         <v>33</v>
       </c>
       <c r="F142">
-        <v>2014</v>
-      </c>
-      <c r="M142">
+        <v>2015</v>
+      </c>
+      <c r="L142">
         <v>42</v>
       </c>
     </row>
@@ -8870,9 +8508,9 @@
         <v>33</v>
       </c>
       <c r="F143">
-        <v>2014</v>
-      </c>
-      <c r="M143">
+        <v>2015</v>
+      </c>
+      <c r="L143">
         <v>42</v>
       </c>
     </row>
@@ -8893,7 +8531,7 @@
         <v>25</v>
       </c>
       <c r="F144">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -8902,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -8910,7 +8548,7 @@
       <c r="K144">
         <v>0</v>
       </c>
-      <c r="M144">
+      <c r="L144">
         <v>42</v>
       </c>
     </row>
@@ -8931,9 +8569,9 @@
         <v>21</v>
       </c>
       <c r="F145">
-        <v>2014</v>
-      </c>
-      <c r="M145">
+        <v>2015</v>
+      </c>
+      <c r="L145">
         <v>42</v>
       </c>
     </row>
@@ -8954,16 +8592,16 @@
         <v>21</v>
       </c>
       <c r="F146">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146">
         <v>1</v>
@@ -8972,16 +8610,19 @@
         <v>1</v>
       </c>
       <c r="L146">
-        <v>0</v>
-      </c>
-      <c r="M146">
         <v>43</v>
       </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
       <c r="P146">
-        <v>161</v>
+        <v>6109</v>
       </c>
       <c r="Q146">
-        <v>55254</v>
+        <v>72144</v>
+      </c>
+      <c r="R146">
+        <v>417</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
@@ -9001,9 +8642,9 @@
         <v>33</v>
       </c>
       <c r="F147">
-        <v>2014</v>
-      </c>
-      <c r="M147">
+        <v>2015</v>
+      </c>
+      <c r="L147">
         <v>42</v>
       </c>
     </row>
@@ -9024,10 +8665,10 @@
         <v>43</v>
       </c>
       <c r="F148">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -9042,15 +8683,15 @@
         <v>1</v>
       </c>
       <c r="L148">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M148">
-        <v>42</v>
-      </c>
-      <c r="Q148">
-        <v>44</v>
-      </c>
-      <c r="R148">
+        <v>9</v>
+      </c>
+      <c r="N148">
+        <v>90000</v>
+      </c>
+      <c r="O148">
         <v>0</v>
       </c>
     </row>
@@ -9071,16 +8712,16 @@
         <v>33</v>
       </c>
       <c r="F149">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149">
         <v>1</v>
@@ -9091,7 +8732,7 @@
       <c r="L149">
         <v>0</v>
       </c>
-      <c r="M149">
+      <c r="O149">
         <v>0</v>
       </c>
     </row>
@@ -9112,7 +8753,7 @@
         <v>43</v>
       </c>
       <c r="F150">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -9121,7 +8762,7 @@
         <v>1</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -9130,24 +8771,15 @@
         <v>0</v>
       </c>
       <c r="L150">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M150">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="N150">
-        <v>13</v>
+        <v>37480</v>
       </c>
       <c r="O150">
-        <v>35778</v>
-      </c>
-      <c r="P150">
-        <v>379</v>
-      </c>
-      <c r="Q150">
-        <v>160</v>
-      </c>
-      <c r="R150">
         <v>0</v>
       </c>
     </row>
@@ -9168,7 +8800,7 @@
         <v>43</v>
       </c>
       <c r="F151">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -9186,19 +8818,13 @@
         <v>0</v>
       </c>
       <c r="L151">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M151">
-        <v>43</v>
-      </c>
-      <c r="N151">
-        <v>140</v>
-      </c>
-      <c r="P151">
-        <v>8164</v>
-      </c>
-      <c r="Q151">
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="O151">
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
@@ -9218,16 +8844,16 @@
         <v>33</v>
       </c>
       <c r="F152">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152">
         <v>1</v>
@@ -9236,19 +8862,19 @@
         <v>1</v>
       </c>
       <c r="L152">
-        <v>0</v>
-      </c>
-      <c r="M152">
         <v>43</v>
       </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
       <c r="P152">
-        <v>5949</v>
+        <v>79197</v>
       </c>
       <c r="Q152">
-        <v>878</v>
+        <v>18442</v>
       </c>
       <c r="R152">
-        <v>578</v>
+        <v>748</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
@@ -9268,7 +8894,22 @@
         <v>25</v>
       </c>
       <c r="F153">
-        <v>2014</v>
+        <v>2015</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
@@ -9288,7 +8929,7 @@
         <v>25</v>
       </c>
       <c r="F154">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -9305,8 +8946,23 @@
       <c r="K154">
         <v>0</v>
       </c>
+      <c r="L154">
+        <v>42</v>
+      </c>
       <c r="M154">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
@@ -9326,9 +8982,24 @@
         <v>43</v>
       </c>
       <c r="F155">
-        <v>2014</v>
-      </c>
-      <c r="M155">
+        <v>2015</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
         <v>42</v>
       </c>
     </row>
@@ -9349,10 +9020,7 @@
         <v>21</v>
       </c>
       <c r="F156">
-        <v>2014</v>
-      </c>
-      <c r="M156">
-        <v>42</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
@@ -9372,16 +9040,16 @@
         <v>33</v>
       </c>
       <c r="F157">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
         <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -9390,13 +9058,16 @@
         <v>0</v>
       </c>
       <c r="L157">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M157">
-        <v>42</v>
+        <v>413</v>
+      </c>
+      <c r="N157">
+        <v>528018</v>
       </c>
       <c r="O157">
-        <v>496529</v>
+        <v>1</v>
       </c>
       <c r="P157">
         <v>0</v>
@@ -9425,7 +9096,7 @@
         <v>25</v>
       </c>
       <c r="F158">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -9443,22 +9114,22 @@
         <v>1</v>
       </c>
       <c r="L158">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M158">
-        <v>42</v>
-      </c>
-      <c r="N158">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
       </c>
       <c r="P158">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R158">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
@@ -9478,43 +9149,40 @@
         <v>25</v>
       </c>
       <c r="F159">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
         <v>1</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159">
         <v>1</v>
       </c>
       <c r="K159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L159">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M159">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N159">
-        <v>86</v>
+        <v>279257</v>
       </c>
       <c r="O159">
-        <v>316403</v>
+        <v>0</v>
       </c>
       <c r="P159">
-        <v>13364</v>
+        <v>13120</v>
       </c>
       <c r="Q159">
-        <v>3</v>
-      </c>
-      <c r="R159">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
@@ -9534,7 +9202,7 @@
         <v>25</v>
       </c>
       <c r="F160">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -9549,28 +9217,19 @@
         <v>1</v>
       </c>
       <c r="K160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M160">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="N160">
-        <v>106</v>
+        <v>85312</v>
       </c>
       <c r="O160">
-        <v>78464</v>
-      </c>
-      <c r="P160">
-        <v>82843</v>
-      </c>
-      <c r="Q160">
-        <v>4110</v>
-      </c>
-      <c r="R160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
@@ -9590,16 +9249,16 @@
         <v>29</v>
       </c>
       <c r="F161">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161">
         <v>1</v>
@@ -9608,24 +9267,15 @@
         <v>0</v>
       </c>
       <c r="L161">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M161">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="N161">
-        <v>10</v>
+        <v>23869</v>
       </c>
       <c r="O161">
-        <v>17821</v>
-      </c>
-      <c r="P161">
-        <v>0</v>
-      </c>
-      <c r="Q161">
-        <v>57</v>
-      </c>
-      <c r="R161">
         <v>0</v>
       </c>
     </row>
@@ -9646,10 +9296,7 @@
         <v>43</v>
       </c>
       <c r="F162">
-        <v>2014</v>
-      </c>
-      <c r="M162">
-        <v>0</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
@@ -9669,9 +9316,9 @@
         <v>43</v>
       </c>
       <c r="F163">
-        <v>2014</v>
-      </c>
-      <c r="M163">
+        <v>2015</v>
+      </c>
+      <c r="L163">
         <v>42</v>
       </c>
     </row>
@@ -9692,9 +9339,24 @@
         <v>43</v>
       </c>
       <c r="F164">
-        <v>2014</v>
-      </c>
-      <c r="M164">
+        <v>2015</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
         <v>0</v>
       </c>
     </row>
@@ -9715,10 +9377,10 @@
         <v>33</v>
       </c>
       <c r="F165">
-        <v>2014</v>
-      </c>
-      <c r="M165">
-        <v>0</v>
+        <v>2015</v>
+      </c>
+      <c r="L165">
+        <v>42</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
@@ -9738,7 +9400,7 @@
         <v>25</v>
       </c>
       <c r="F166">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
@@ -9758,7 +9420,7 @@
         <v>29</v>
       </c>
       <c r="F167">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -9776,24 +9438,15 @@
         <v>0</v>
       </c>
       <c r="L167">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M167">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="N167">
-        <v>0</v>
+        <v>1397</v>
       </c>
       <c r="O167">
-        <v>1321</v>
-      </c>
-      <c r="P167">
-        <v>0</v>
-      </c>
-      <c r="Q167">
-        <v>0</v>
-      </c>
-      <c r="R167">
         <v>0</v>
       </c>
     </row>
@@ -9814,9 +9467,9 @@
         <v>21</v>
       </c>
       <c r="F168">
-        <v>2014</v>
-      </c>
-      <c r="M168">
+        <v>2015</v>
+      </c>
+      <c r="L168">
         <v>42</v>
       </c>
     </row>
@@ -9837,36 +9490,27 @@
         <v>29</v>
       </c>
       <c r="F169">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>1</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169">
         <v>1</v>
       </c>
       <c r="K169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L169">
-        <v>1</v>
-      </c>
-      <c r="M169">
-        <v>42</v>
-      </c>
-      <c r="P169">
-        <v>825</v>
-      </c>
-      <c r="Q169">
-        <v>0</v>
-      </c>
-      <c r="R169">
+        <v>43</v>
+      </c>
+      <c r="O169">
         <v>0</v>
       </c>
     </row>
@@ -9887,7 +9531,7 @@
         <v>25</v>
       </c>
       <c r="F170">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -9908,13 +9552,19 @@
         <v>0</v>
       </c>
       <c r="M170">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="N170">
-        <v>21</v>
+        <v>109237</v>
       </c>
       <c r="O170">
-        <v>112202</v>
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
       </c>
       <c r="R170">
         <v>0</v>
@@ -9937,9 +9587,9 @@
         <v>29</v>
       </c>
       <c r="F171">
-        <v>2014</v>
-      </c>
-      <c r="M171">
+        <v>2015</v>
+      </c>
+      <c r="L171">
         <v>42</v>
       </c>
     </row>
@@ -9960,7 +9610,7 @@
         <v>29</v>
       </c>
       <c r="F172">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -9983,16 +9633,7 @@
       <c r="M172">
         <v>0</v>
       </c>
-      <c r="N172">
-        <v>0</v>
-      </c>
-      <c r="P172">
-        <v>100</v>
-      </c>
-      <c r="Q172">
-        <v>519</v>
-      </c>
-      <c r="R172">
+      <c r="O172">
         <v>0</v>
       </c>
     </row>
@@ -10013,9 +9654,9 @@
         <v>33</v>
       </c>
       <c r="F173">
-        <v>2014</v>
-      </c>
-      <c r="M173">
+        <v>2015</v>
+      </c>
+      <c r="L173">
         <v>42</v>
       </c>
     </row>
@@ -10036,9 +9677,24 @@
         <v>43</v>
       </c>
       <c r="F174">
-        <v>2014</v>
-      </c>
-      <c r="M174">
+        <v>2015</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
         <v>42</v>
       </c>
     </row>
@@ -10059,7 +9715,7 @@
         <v>25</v>
       </c>
       <c r="F175">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -10076,7 +9732,7 @@
       <c r="K175">
         <v>1</v>
       </c>
-      <c r="M175">
+      <c r="L175">
         <v>42</v>
       </c>
     </row>
@@ -10097,7 +9753,7 @@
         <v>25</v>
       </c>
       <c r="F176">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -10114,7 +9770,7 @@
       <c r="K176">
         <v>1</v>
       </c>
-      <c r="M176">
+      <c r="L176">
         <v>42</v>
       </c>
     </row>
@@ -10135,16 +9791,16 @@
         <v>33</v>
       </c>
       <c r="F177">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177">
         <v>1</v>
@@ -10153,24 +9809,15 @@
         <v>1</v>
       </c>
       <c r="L177">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M177">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="N177">
-        <v>2</v>
+        <v>2190</v>
       </c>
       <c r="O177">
-        <v>1310</v>
-      </c>
-      <c r="P177">
-        <v>0</v>
-      </c>
-      <c r="Q177">
-        <v>38</v>
-      </c>
-      <c r="R177">
         <v>0</v>
       </c>
     </row>
@@ -10191,16 +9838,16 @@
         <v>21</v>
       </c>
       <c r="F178">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -10209,21 +9856,12 @@
         <v>0</v>
       </c>
       <c r="L178">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="M178">
-        <v>43</v>
-      </c>
-      <c r="N178">
-        <v>1</v>
-      </c>
-      <c r="P178">
-        <v>800</v>
-      </c>
-      <c r="Q178">
-        <v>0</v>
-      </c>
-      <c r="R178">
+        <v>0</v>
+      </c>
+      <c r="O178">
         <v>0</v>
       </c>
     </row>
@@ -10244,7 +9882,7 @@
         <v>29</v>
       </c>
       <c r="F179">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -10262,10 +9900,16 @@
         <v>1</v>
       </c>
       <c r="L179">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M179">
-        <v>42</v>
+        <v>2113</v>
+      </c>
+      <c r="N179">
+        <v>135009</v>
+      </c>
+      <c r="O179">
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
@@ -10285,16 +9929,16 @@
         <v>29</v>
       </c>
       <c r="F180">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G180">
         <v>0</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -10306,9 +9950,9 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>0</v>
-      </c>
-      <c r="R180">
+        <v>3</v>
+      </c>
+      <c r="O180">
         <v>0</v>
       </c>
     </row>
@@ -10329,10 +9973,7 @@
         <v>25</v>
       </c>
       <c r="F181">
-        <v>2014</v>
-      </c>
-      <c r="M181">
-        <v>42</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
@@ -10352,7 +9993,7 @@
         <v>74</v>
       </c>
       <c r="F182">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -10361,31 +10002,31 @@
         <v>1</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K182">
         <v>1</v>
       </c>
       <c r="L182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M182">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N182">
-        <v>67</v>
+        <v>124379</v>
       </c>
       <c r="O182">
-        <v>121805</v>
+        <v>1</v>
       </c>
       <c r="P182">
-        <v>4457</v>
+        <v>4575</v>
       </c>
       <c r="Q182">
-        <v>509</v>
+        <v>726</v>
       </c>
       <c r="R182">
         <v>0</v>
@@ -10408,16 +10049,16 @@
         <v>21</v>
       </c>
       <c r="F183">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G183">
         <v>0</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183">
         <v>0</v>
@@ -10426,18 +10067,9 @@
         <v>0</v>
       </c>
       <c r="L183">
-        <v>0</v>
-      </c>
-      <c r="M183">
-        <v>43</v>
-      </c>
-      <c r="P183">
-        <v>693</v>
-      </c>
-      <c r="Q183">
-        <v>651</v>
-      </c>
-      <c r="R183">
+        <v>42</v>
+      </c>
+      <c r="O183">
         <v>0</v>
       </c>
     </row>
@@ -10458,16 +10090,16 @@
         <v>43</v>
       </c>
       <c r="F184">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -10476,18 +10108,9 @@
         <v>0</v>
       </c>
       <c r="L184">
-        <v>0</v>
-      </c>
-      <c r="M184">
-        <v>42</v>
-      </c>
-      <c r="P184">
-        <v>129</v>
-      </c>
-      <c r="Q184">
-        <v>4</v>
-      </c>
-      <c r="R184">
+        <v>42</v>
+      </c>
+      <c r="O184">
         <v>0</v>
       </c>
     </row>
@@ -10508,13 +10131,37 @@
         <v>29</v>
       </c>
       <c r="F185">
-        <v>2014</v>
+        <v>2015</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
       </c>
       <c r="M185">
-        <v>42</v>
+        <v>8</v>
+      </c>
+      <c r="O185">
+        <v>0</v>
       </c>
       <c r="P185">
-        <v>206</v>
+        <v>312</v>
+      </c>
+      <c r="R185">
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
@@ -10534,7 +10181,7 @@
         <v>25</v>
       </c>
       <c r="F186">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -10551,7 +10198,7 @@
       <c r="K186">
         <v>0</v>
       </c>
-      <c r="M186">
+      <c r="L186">
         <v>42</v>
       </c>
     </row>
@@ -10572,16 +10219,16 @@
         <v>25</v>
       </c>
       <c r="F187">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187">
         <v>0</v>
@@ -10589,8 +10236,8 @@
       <c r="K187">
         <v>0</v>
       </c>
-      <c r="M187">
-        <v>42</v>
+      <c r="L187">
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
@@ -10610,13 +10257,13 @@
         <v>21</v>
       </c>
       <c r="F188">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
         <v>1</v>
@@ -10625,25 +10272,19 @@
         <v>1</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L188">
-        <v>0</v>
-      </c>
-      <c r="M188">
-        <v>42</v>
-      </c>
-      <c r="N188">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O188">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="P188">
-        <v>1822</v>
+        <v>690</v>
       </c>
       <c r="Q188">
-        <v>1659</v>
+        <v>731</v>
       </c>
       <c r="R188">
         <v>0</v>
@@ -10666,7 +10307,7 @@
         <v>25</v>
       </c>
       <c r="F189">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -10684,16 +10325,16 @@
         <v>1</v>
       </c>
       <c r="L189">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M189">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N189">
-        <v>31</v>
+        <v>68133</v>
       </c>
       <c r="O189">
-        <v>68027</v>
+        <v>0</v>
       </c>
       <c r="P189">
         <v>194</v>
@@ -10722,16 +10363,16 @@
         <v>74</v>
       </c>
       <c r="F190">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
         <v>1</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190">
         <v>1</v>
@@ -10742,14 +10383,17 @@
       <c r="L190">
         <v>0</v>
       </c>
-      <c r="M190">
+      <c r="O190">
         <v>0</v>
       </c>
       <c r="P190">
-        <v>1733</v>
+        <v>3444</v>
       </c>
       <c r="Q190">
-        <v>1049</v>
+        <v>2154</v>
+      </c>
+      <c r="R190">
+        <v>16</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
@@ -10769,16 +10413,16 @@
         <v>25</v>
       </c>
       <c r="F191">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
         <v>1</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191">
         <v>0</v>
@@ -10786,8 +10430,26 @@
       <c r="K191">
         <v>1</v>
       </c>
+      <c r="L191">
+        <v>42</v>
+      </c>
       <c r="M191">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="N191">
+        <v>29318</v>
+      </c>
+      <c r="O191">
+        <v>0</v>
+      </c>
+      <c r="P191">
+        <v>0</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
@@ -10807,19 +10469,19 @@
         <v>74</v>
       </c>
       <c r="F192">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
         <v>1</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K192">
         <v>0</v>
@@ -10827,11 +10489,11 @@
       <c r="L192">
         <v>0</v>
       </c>
-      <c r="M192">
-        <v>0</v>
-      </c>
-      <c r="Q192">
-        <v>1252</v>
+      <c r="N192">
+        <v>4681</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
@@ -10851,28 +10513,28 @@
         <v>29</v>
       </c>
       <c r="F193">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L193">
-        <v>0</v>
-      </c>
-      <c r="M193">
         <v>43</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
@@ -10892,10 +10554,7 @@
         <v>33</v>
       </c>
       <c r="F194">
-        <v>2014</v>
-      </c>
-      <c r="M194">
-        <v>0</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
@@ -10915,9 +10574,9 @@
         <v>33</v>
       </c>
       <c r="F195">
-        <v>2014</v>
-      </c>
-      <c r="M195">
+        <v>2015</v>
+      </c>
+      <c r="L195">
         <v>42</v>
       </c>
     </row>
@@ -10938,9 +10597,24 @@
         <v>43</v>
       </c>
       <c r="F196">
-        <v>2014</v>
-      </c>
-      <c r="M196">
+        <v>2015</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
         <v>0</v>
       </c>
     </row>
@@ -10961,39 +10635,27 @@
         <v>21</v>
       </c>
       <c r="F197">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
         <v>1</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L197">
-        <v>1</v>
-      </c>
-      <c r="M197">
         <v>42</v>
       </c>
       <c r="O197">
-        <v>53135</v>
-      </c>
-      <c r="P197">
-        <v>1000</v>
-      </c>
-      <c r="Q197">
-        <v>1000</v>
-      </c>
-      <c r="R197">
         <v>0</v>
       </c>
     </row>
@@ -11014,16 +10676,16 @@
         <v>25</v>
       </c>
       <c r="F198">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
         <v>1</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198">
         <v>0</v>
@@ -11032,16 +10694,16 @@
         <v>0</v>
       </c>
       <c r="L198">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M198">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="N198">
-        <v>135</v>
+        <v>659892</v>
       </c>
       <c r="O198">
-        <v>633077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
@@ -11061,40 +10723,7 @@
         <v>25</v>
       </c>
       <c r="F199">
-        <v>2014</v>
-      </c>
-      <c r="G199">
-        <v>1</v>
-      </c>
-      <c r="H199">
-        <v>1</v>
-      </c>
-      <c r="I199">
-        <v>1</v>
-      </c>
-      <c r="J199">
-        <v>1</v>
-      </c>
-      <c r="K199">
-        <v>1</v>
-      </c>
-      <c r="L199">
-        <v>1</v>
-      </c>
-      <c r="M199">
-        <v>0</v>
-      </c>
-      <c r="N199">
-        <v>2</v>
-      </c>
-      <c r="P199">
-        <v>0</v>
-      </c>
-      <c r="Q199">
-        <v>0</v>
-      </c>
-      <c r="R199">
-        <v>0</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
@@ -11114,9 +10743,24 @@
         <v>43</v>
       </c>
       <c r="F200">
-        <v>2014</v>
-      </c>
-      <c r="M200">
+        <v>2015</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
         <v>0</v>
       </c>
     </row>
@@ -11137,9 +10781,9 @@
         <v>33</v>
       </c>
       <c r="F201">
-        <v>2014</v>
-      </c>
-      <c r="M201">
+        <v>2015</v>
+      </c>
+      <c r="L201">
         <v>42</v>
       </c>
     </row>
@@ -11160,16 +10804,16 @@
         <v>29</v>
       </c>
       <c r="F202">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202">
         <v>1</v>
@@ -11178,15 +10822,12 @@
         <v>0</v>
       </c>
       <c r="L202">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="M202">
-        <v>43</v>
-      </c>
-      <c r="N202">
-        <v>67</v>
-      </c>
-      <c r="R202">
+        <v>70</v>
+      </c>
+      <c r="O202">
         <v>0</v>
       </c>
     </row>
@@ -11207,16 +10848,16 @@
         <v>25</v>
       </c>
       <c r="F203">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
         <v>1</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203">
         <v>1</v>
@@ -11225,25 +10866,25 @@
         <v>0</v>
       </c>
       <c r="L203">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M203">
-        <v>42</v>
+        <v>399</v>
       </c>
       <c r="N203">
-        <v>355</v>
+        <v>726188</v>
       </c>
       <c r="O203">
-        <v>690777</v>
+        <v>1</v>
       </c>
       <c r="P203">
-        <v>2211</v>
+        <v>0</v>
       </c>
       <c r="Q203">
         <v>0</v>
       </c>
       <c r="R203">
-        <v>661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
@@ -11263,9 +10904,9 @@
         <v>21</v>
       </c>
       <c r="F204">
-        <v>2014</v>
-      </c>
-      <c r="M204">
+        <v>2015</v>
+      </c>
+      <c r="L204">
         <v>42</v>
       </c>
     </row>
@@ -11286,16 +10927,16 @@
         <v>25</v>
       </c>
       <c r="F205">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G205">
         <v>0</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205">
         <v>0</v>
@@ -11303,7 +10944,7 @@
       <c r="K205">
         <v>0</v>
       </c>
-      <c r="M205">
+      <c r="L205">
         <v>42</v>
       </c>
     </row>
@@ -11324,7 +10965,7 @@
         <v>29</v>
       </c>
       <c r="F206">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -11344,11 +10985,11 @@
       <c r="L206">
         <v>0</v>
       </c>
-      <c r="M206">
-        <v>0</v>
+      <c r="O206">
+        <v>1</v>
       </c>
       <c r="Q206">
-        <v>4724</v>
+        <v>7773</v>
       </c>
       <c r="R206">
         <v>0</v>
@@ -11371,9 +11012,24 @@
         <v>43</v>
       </c>
       <c r="F207">
-        <v>2014</v>
-      </c>
-      <c r="M207">
+        <v>2015</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
         <v>42</v>
       </c>
     </row>
@@ -11394,42 +11050,33 @@
         <v>43</v>
       </c>
       <c r="F208">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208">
         <v>0</v>
       </c>
       <c r="J208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L208">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M208">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N208">
-        <v>21</v>
+        <v>54164</v>
       </c>
       <c r="O208">
-        <v>70869</v>
-      </c>
-      <c r="P208">
-        <v>0</v>
-      </c>
-      <c r="Q208">
-        <v>0</v>
-      </c>
-      <c r="R208">
         <v>0</v>
       </c>
     </row>
@@ -11450,7 +11097,7 @@
         <v>43</v>
       </c>
       <c r="F209">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
@@ -11470,7 +11117,7 @@
         <v>25</v>
       </c>
       <c r="F210">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -11479,7 +11126,7 @@
         <v>1</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210">
         <v>1</v>
@@ -11488,25 +11135,25 @@
         <v>1</v>
       </c>
       <c r="L210">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M210">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="N210">
-        <v>116</v>
+        <v>17464</v>
       </c>
       <c r="O210">
-        <v>371410</v>
+        <v>1</v>
       </c>
       <c r="P210">
-        <v>567</v>
+        <v>6141</v>
       </c>
       <c r="Q210">
         <v>0</v>
       </c>
       <c r="R210">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
@@ -11526,7 +11173,7 @@
         <v>33</v>
       </c>
       <c r="F211">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -11547,18 +11194,12 @@
         <v>0</v>
       </c>
       <c r="M211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N211">
-        <v>0</v>
-      </c>
-      <c r="P211">
-        <v>0</v>
-      </c>
-      <c r="Q211">
-        <v>0</v>
-      </c>
-      <c r="R211">
+        <v>220</v>
+      </c>
+      <c r="O211">
         <v>0</v>
       </c>
     </row>
@@ -11579,10 +11220,10 @@
         <v>43</v>
       </c>
       <c r="F212">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -11597,24 +11238,15 @@
         <v>0</v>
       </c>
       <c r="L212">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M212">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="N212">
-        <v>67</v>
+        <v>94100</v>
       </c>
       <c r="O212">
-        <v>22000</v>
-      </c>
-      <c r="P212">
-        <v>176</v>
-      </c>
-      <c r="Q212">
-        <v>19</v>
-      </c>
-      <c r="R212">
         <v>0</v>
       </c>
     </row>
@@ -11635,37 +11267,34 @@
         <v>33</v>
       </c>
       <c r="F213">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213">
         <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213">
         <v>1</v>
       </c>
       <c r="K213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L213">
-        <v>0</v>
-      </c>
-      <c r="M213">
-        <v>42</v>
+        <v>42</v>
+      </c>
+      <c r="O213">
+        <v>1</v>
       </c>
       <c r="P213">
-        <v>6596</v>
+        <v>6913</v>
       </c>
       <c r="Q213">
-        <v>2682</v>
-      </c>
-      <c r="R213">
-        <v>162</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
@@ -11685,9 +11314,9 @@
         <v>33</v>
       </c>
       <c r="F214">
-        <v>2014</v>
-      </c>
-      <c r="M214">
+        <v>2015</v>
+      </c>
+      <c r="L214">
         <v>42</v>
       </c>
     </row>
@@ -11708,7 +11337,7 @@
         <v>21</v>
       </c>
       <c r="F215">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -11729,18 +11358,9 @@
         <v>0</v>
       </c>
       <c r="M215">
-        <v>42</v>
-      </c>
-      <c r="N215">
-        <v>0</v>
-      </c>
-      <c r="P215">
-        <v>0</v>
-      </c>
-      <c r="Q215">
-        <v>0</v>
-      </c>
-      <c r="R215">
+        <v>0</v>
+      </c>
+      <c r="O215">
         <v>0</v>
       </c>
     </row>
@@ -11761,36 +11381,27 @@
         <v>21</v>
       </c>
       <c r="F216">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G216">
         <v>0</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L216">
         <v>0</v>
       </c>
-      <c r="M216">
-        <v>0</v>
-      </c>
-      <c r="P216">
-        <v>3390</v>
-      </c>
-      <c r="Q216">
-        <v>0</v>
-      </c>
-      <c r="R216">
+      <c r="O216">
         <v>0</v>
       </c>
     </row>
@@ -11811,10 +11422,10 @@
         <v>29</v>
       </c>
       <c r="F217">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -11826,12 +11437,12 @@
         <v>1</v>
       </c>
       <c r="K217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L217">
-        <v>1</v>
-      </c>
-      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="O217">
         <v>0</v>
       </c>
     </row>
@@ -11852,16 +11463,16 @@
         <v>29</v>
       </c>
       <c r="F218">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
         <v>1</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218">
         <v>1</v>
@@ -11873,19 +11484,13 @@
         <v>0</v>
       </c>
       <c r="M218">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="N218">
+        <v>28591</v>
       </c>
       <c r="O218">
-        <v>30686</v>
-      </c>
-      <c r="P218">
-        <v>0</v>
-      </c>
-      <c r="Q218">
-        <v>0</v>
-      </c>
-      <c r="R218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
